--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -67,7 +67,7 @@
     <t>110B</t>
   </si>
   <si>
-    <t>/media/goods/110B.jpg</t>
+    <t>110B.jpg</t>
   </si>
   <si>
     <t>5.156</t>
@@ -88,7 +88,7 @@
     <t>87B</t>
   </si>
   <si>
-    <t>/media/goods/87B.jpg</t>
+    <t>87B.jpg</t>
   </si>
   <si>
     <t>5.155</t>
@@ -97,7 +97,7 @@
     <t>86B</t>
   </si>
   <si>
-    <t>/media/goods/86B.jpg</t>
+    <t>86B.jpg</t>
   </si>
   <si>
     <t>5.154</t>
@@ -106,7 +106,7 @@
     <t>82B</t>
   </si>
   <si>
-    <t>/media/goods/82B.jpg</t>
+    <t>82B.jpg</t>
   </si>
   <si>
     <t>5.153</t>
@@ -115,7 +115,7 @@
     <t>81B</t>
   </si>
   <si>
-    <t>/media/goods/81B.jpg</t>
+    <t>81B.jpg</t>
   </si>
   <si>
     <t>5.152</t>
@@ -124,7 +124,7 @@
     <t>65B</t>
   </si>
   <si>
-    <t>/media/goods/65B.jpg</t>
+    <t>65B.jpg</t>
   </si>
   <si>
     <t>5.151</t>
@@ -133,7 +133,7 @@
     <t>58B</t>
   </si>
   <si>
-    <t>/media/goods/58B.jpg</t>
+    <t>58B.jpg</t>
   </si>
   <si>
     <t>5.150</t>
@@ -142,7 +142,7 @@
     <t>56B</t>
   </si>
   <si>
-    <t>/media/goods/56B.jpg</t>
+    <t>56B.jpg</t>
   </si>
   <si>
     <t>5.149</t>
@@ -151,7 +151,7 @@
     <t>46B</t>
   </si>
   <si>
-    <t>/media/goods/46B.jpg</t>
+    <t>46B.jpg</t>
   </si>
   <si>
     <t>5.148</t>
@@ -160,7 +160,7 @@
     <t>42B</t>
   </si>
   <si>
-    <t>/media/goods/42B.jpg</t>
+    <t>42B.jpg</t>
   </si>
   <si>
     <t>5.147</t>
@@ -169,7 +169,7 @@
     <t>41B</t>
   </si>
   <si>
-    <t>/media/goods/41B.jpg</t>
+    <t>41B.jpg</t>
   </si>
   <si>
     <t>5.146</t>
@@ -178,7 +178,7 @@
     <t>29B</t>
   </si>
   <si>
-    <t>/media/goods/29B.jpg</t>
+    <t>29B.jpg</t>
   </si>
   <si>
     <t>5.145</t>
@@ -187,7 +187,7 @@
     <t>23B</t>
   </si>
   <si>
-    <t>/media/goods/23B.jpg</t>
+    <t>23B.jpg</t>
   </si>
   <si>
     <t>5.144</t>
@@ -196,7 +196,7 @@
     <t>22B</t>
   </si>
   <si>
-    <t>/media/goods/22B.jpg</t>
+    <t>22B.jpg</t>
   </si>
   <si>
     <t>5.143</t>
@@ -205,7 +205,7 @@
     <t>21B</t>
   </si>
   <si>
-    <t>/media/goods/21B.jpg</t>
+    <t>21B.jpg</t>
   </si>
   <si>
     <t>5.142</t>
@@ -214,7 +214,7 @@
     <t>19B</t>
   </si>
   <si>
-    <t>/media/goods/19B.jpg</t>
+    <t>19B.jpg</t>
   </si>
   <si>
     <t>5.141</t>
@@ -223,7 +223,7 @@
     <t>18B</t>
   </si>
   <si>
-    <t>/media/goods/18B.jpg</t>
+    <t>18B.jpg</t>
   </si>
   <si>
     <t>5.140</t>
@@ -232,7 +232,7 @@
     <t>17B</t>
   </si>
   <si>
-    <t>/media/goods/17B.jpg</t>
+    <t>17B.jpg</t>
   </si>
   <si>
     <t>5.139</t>
@@ -241,7 +241,7 @@
     <t>15B</t>
   </si>
   <si>
-    <t>/media/goods/15B.jpg</t>
+    <t>15B.jpg</t>
   </si>
   <si>
     <t>5.138</t>
@@ -250,7 +250,7 @@
     <t>14B</t>
   </si>
   <si>
-    <t>/media/goods/14B.jpg</t>
+    <t>14B.jpg</t>
   </si>
   <si>
     <t>5.137</t>
@@ -259,7 +259,7 @@
     <t>11B</t>
   </si>
   <si>
-    <t>/media/goods/11B.jpg</t>
+    <t>11B.jpg</t>
   </si>
   <si>
     <t>5.136</t>
@@ -268,7 +268,7 @@
     <t>10B</t>
   </si>
   <si>
-    <t>/media/goods/10B.jpg</t>
+    <t>10B.jpg</t>
   </si>
   <si>
     <t>5.135</t>
@@ -280,7 +280,7 @@
     <t>25E</t>
   </si>
   <si>
-    <t>/media/goods/25E.jpg</t>
+    <t>25E.jpg</t>
   </si>
   <si>
     <t>5.134</t>
@@ -289,7 +289,7 @@
     <t>24E</t>
   </si>
   <si>
-    <t>/media/goods/24E.jpg</t>
+    <t>24E.jpg</t>
   </si>
   <si>
     <t>5.133</t>
@@ -298,7 +298,7 @@
     <t>22E</t>
   </si>
   <si>
-    <t>/media/goods/22E.jpg</t>
+    <t>22E.jpg</t>
   </si>
   <si>
     <t>5.132</t>
@@ -307,7 +307,7 @@
     <t>21E</t>
   </si>
   <si>
-    <t>/media/goods/21E.jpg</t>
+    <t>21E.jpg</t>
   </si>
   <si>
     <t>5.131</t>
@@ -316,7 +316,7 @@
     <t>19E</t>
   </si>
   <si>
-    <t>/media/goods/19E.jpg</t>
+    <t>19E.jpg</t>
   </si>
   <si>
     <t>5.130</t>
@@ -325,7 +325,7 @@
     <t>18E</t>
   </si>
   <si>
-    <t>/media/goods/18E.jpg</t>
+    <t>18E.jpg</t>
   </si>
   <si>
     <t>5.129</t>
@@ -334,7 +334,7 @@
     <t>17E</t>
   </si>
   <si>
-    <t>/media/goods/17E.jpg</t>
+    <t>17E.jpg</t>
   </si>
   <si>
     <t>5.128</t>
@@ -343,7 +343,7 @@
     <t>16E</t>
   </si>
   <si>
-    <t>/media/goods/16E.jpg</t>
+    <t>16E.jpg</t>
   </si>
   <si>
     <t>5.127</t>
@@ -352,7 +352,7 @@
     <t>14E</t>
   </si>
   <si>
-    <t>/media/goods/14E.jpg</t>
+    <t>14E.jpg</t>
   </si>
   <si>
     <t>5.126</t>
@@ -361,7 +361,7 @@
     <t>13E</t>
   </si>
   <si>
-    <t>/media/goods/13E.jpg</t>
+    <t>13E.jpg</t>
   </si>
   <si>
     <t>5.125</t>
@@ -370,7 +370,7 @@
     <t>12E</t>
   </si>
   <si>
-    <t>/media/goods/12E.jpg</t>
+    <t>12E.jpg</t>
   </si>
   <si>
     <t>5.124</t>
@@ -379,7 +379,7 @@
     <t>11E</t>
   </si>
   <si>
-    <t>/media/goods/11E.jpg</t>
+    <t>11E.jpg</t>
   </si>
   <si>
     <t>5.123</t>
@@ -388,7 +388,7 @@
     <t>10E</t>
   </si>
   <si>
-    <t>/media/goods/10E.jpg</t>
+    <t>10E.jpg</t>
   </si>
   <si>
     <t>5.122</t>
@@ -397,7 +397,7 @@
     <t>9E</t>
   </si>
   <si>
-    <t>/media/goods/9E.jpg</t>
+    <t>9E.jpg</t>
   </si>
   <si>
     <t>5.121</t>
@@ -406,7 +406,7 @@
     <t>7E</t>
   </si>
   <si>
-    <t>/media/goods/7E.jpg</t>
+    <t>7E.jpg</t>
   </si>
   <si>
     <t>5.120</t>
@@ -415,7 +415,7 @@
     <t>6E</t>
   </si>
   <si>
-    <t>/media/goods/6E.jpg</t>
+    <t>6E.jpg</t>
   </si>
   <si>
     <t>5.119</t>
@@ -424,7 +424,7 @@
     <t>5E</t>
   </si>
   <si>
-    <t>/media/goods/5E.jpg</t>
+    <t>5E.jpg</t>
   </si>
   <si>
     <t>5.118</t>
@@ -433,7 +433,7 @@
     <t>4E</t>
   </si>
   <si>
-    <t>/media/goods/4E.jpg</t>
+    <t>4E.jpg</t>
   </si>
   <si>
     <t>5.117</t>
@@ -442,7 +442,7 @@
     <t>3E</t>
   </si>
   <si>
-    <t>/media/goods/3E.jpg</t>
+    <t>3E.jpg</t>
   </si>
   <si>
     <t>5.116</t>
@@ -451,7 +451,7 @@
     <t>2E</t>
   </si>
   <si>
-    <t>/media/goods/2E.jpg</t>
+    <t>2E.jpg</t>
   </si>
   <si>
     <t>5.115</t>
@@ -460,7 +460,7 @@
     <t>1E</t>
   </si>
   <si>
-    <t>/media/goods/1E.jpg</t>
+    <t>1E.jpg</t>
   </si>
   <si>
     <t>5.114</t>
@@ -472,7 +472,7 @@
     <t>126.0</t>
   </si>
   <si>
-    <t>/media/goods/126.jpg</t>
+    <t>126.jpg</t>
   </si>
   <si>
     <t>5.113</t>
@@ -481,7 +481,7 @@
     <t>125.0</t>
   </si>
   <si>
-    <t>/media/goods/125.jpg</t>
+    <t>125.jpg</t>
   </si>
   <si>
     <t>5.112</t>
@@ -493,7 +493,7 @@
     <t>124.0</t>
   </si>
   <si>
-    <t>/media/goods/124.jpg</t>
+    <t>124.jpg</t>
   </si>
   <si>
     <t>5.111</t>
@@ -502,7 +502,7 @@
     <t>123.0</t>
   </si>
   <si>
-    <t>/media/goods/123.jpg</t>
+    <t>123.jpg</t>
   </si>
   <si>
     <t>5.110</t>
@@ -511,7 +511,7 @@
     <t>122.0</t>
   </si>
   <si>
-    <t>/media/goods/122.jpg</t>
+    <t>122.jpg</t>
   </si>
   <si>
     <t>5.109</t>
@@ -520,7 +520,7 @@
     <t>121.0</t>
   </si>
   <si>
-    <t>/media/goods/121.jpg</t>
+    <t>121.jpg</t>
   </si>
   <si>
     <t>5.108</t>
@@ -529,7 +529,7 @@
     <t>120.0</t>
   </si>
   <si>
-    <t>/media/goods/120.jpg</t>
+    <t>120.jpg</t>
   </si>
   <si>
     <t>5.107</t>
@@ -538,7 +538,7 @@
     <t>119.0</t>
   </si>
   <si>
-    <t>/media/goods/119.jpg</t>
+    <t>119.jpg</t>
   </si>
   <si>
     <t>5.106</t>
@@ -547,7 +547,7 @@
     <t>118.0</t>
   </si>
   <si>
-    <t>/media/goods/118.jpg</t>
+    <t>118.jpg</t>
   </si>
   <si>
     <t>5.105</t>
@@ -556,7 +556,7 @@
     <t>117.0</t>
   </si>
   <si>
-    <t>/media/goods/117.jpg</t>
+    <t>117.jpg</t>
   </si>
   <si>
     <t>5.104</t>
@@ -565,7 +565,7 @@
     <t>116.0</t>
   </si>
   <si>
-    <t>/media/goods/116.jpg</t>
+    <t>116.jpg</t>
   </si>
   <si>
     <t>5.103</t>
@@ -574,7 +574,7 @@
     <t>115.0</t>
   </si>
   <si>
-    <t>/media/goods/115.jpg</t>
+    <t>115.jpg</t>
   </si>
   <si>
     <t>5.102</t>
@@ -583,7 +583,7 @@
     <t>114.0</t>
   </si>
   <si>
-    <t>/media/goods/114.jpg</t>
+    <t>114.jpg</t>
   </si>
   <si>
     <t>5.101</t>
@@ -592,7 +592,7 @@
     <t>113.0</t>
   </si>
   <si>
-    <t>/media/goods/113.jpg</t>
+    <t>113.jpg</t>
   </si>
   <si>
     <t>5.100</t>
@@ -601,7 +601,7 @@
     <t>112.0</t>
   </si>
   <si>
-    <t>/media/goods/112.jpg</t>
+    <t>112.jpg</t>
   </si>
   <si>
     <t>5.99</t>
@@ -610,7 +610,7 @@
     <t>111.0</t>
   </si>
   <si>
-    <t>/media/goods/111.jpg</t>
+    <t>111.jpg</t>
   </si>
   <si>
     <t>5.98</t>
@@ -619,7 +619,7 @@
     <t>110.0</t>
   </si>
   <si>
-    <t>/media/goods/110.jpg</t>
+    <t>110.jpg</t>
   </si>
   <si>
     <t>5.97</t>
@@ -628,7 +628,7 @@
     <t>107.0</t>
   </si>
   <si>
-    <t>/media/goods/107.jpg</t>
+    <t>107.jpg</t>
   </si>
   <si>
     <t>5.96</t>
@@ -637,7 +637,7 @@
     <t>106.0</t>
   </si>
   <si>
-    <t>/media/goods/106.jpg</t>
+    <t>106.jpg</t>
   </si>
   <si>
     <t>5.95</t>
@@ -646,7 +646,7 @@
     <t>105.0</t>
   </si>
   <si>
-    <t>/media/goods/105.jpg</t>
+    <t>105.jpg</t>
   </si>
   <si>
     <t>5.94</t>
@@ -655,7 +655,7 @@
     <t>104.0</t>
   </si>
   <si>
-    <t>/media/goods/104.jpg</t>
+    <t>104.jpg</t>
   </si>
   <si>
     <t>5.93</t>
@@ -664,7 +664,7 @@
     <t>103.0</t>
   </si>
   <si>
-    <t>/media/goods/103.jpg</t>
+    <t>103.jpg</t>
   </si>
   <si>
     <t>5.92</t>
@@ -673,7 +673,7 @@
     <t>102.0</t>
   </si>
   <si>
-    <t>/media/goods/102.jpg</t>
+    <t>102.jpg</t>
   </si>
   <si>
     <t>5.91</t>
@@ -682,7 +682,7 @@
     <t>101.0</t>
   </si>
   <si>
-    <t>/media/goods/101.jpg</t>
+    <t>101.jpg</t>
   </si>
   <si>
     <t>5.90</t>
@@ -691,7 +691,7 @@
     <t>100.0</t>
   </si>
   <si>
-    <t>/media/goods/100.jpg</t>
+    <t>100.jpg</t>
   </si>
   <si>
     <t>5.89</t>
@@ -700,7 +700,7 @@
     <t>99.0</t>
   </si>
   <si>
-    <t>/media/goods/99.jpg</t>
+    <t>99.jpg</t>
   </si>
   <si>
     <t>5.88</t>
@@ -709,7 +709,7 @@
     <t>97.0</t>
   </si>
   <si>
-    <t>/media/goods/97.jpg</t>
+    <t>97.jpg</t>
   </si>
   <si>
     <t>5.87</t>
@@ -718,7 +718,7 @@
     <t>96.0</t>
   </si>
   <si>
-    <t>/media/goods/96.jpg</t>
+    <t>96.jpg</t>
   </si>
   <si>
     <t>5.86</t>
@@ -727,7 +727,7 @@
     <t>95.0</t>
   </si>
   <si>
-    <t>/media/goods/95.jpg</t>
+    <t>95.jpg</t>
   </si>
   <si>
     <t>5.85</t>
@@ -736,7 +736,7 @@
     <t>94.0</t>
   </si>
   <si>
-    <t>/media/goods/94.jpg</t>
+    <t>94.jpg</t>
   </si>
   <si>
     <t>5.84</t>
@@ -745,7 +745,7 @@
     <t>93.0</t>
   </si>
   <si>
-    <t>/media/goods/93.jpg</t>
+    <t>93.jpg</t>
   </si>
   <si>
     <t>5.83</t>
@@ -754,7 +754,7 @@
     <t>92.0</t>
   </si>
   <si>
-    <t>/media/goods/92.jpg</t>
+    <t>92.jpg</t>
   </si>
   <si>
     <t>5.82</t>
@@ -763,7 +763,7 @@
     <t>91.0</t>
   </si>
   <si>
-    <t>/media/goods/91.jpg</t>
+    <t>91.jpg</t>
   </si>
   <si>
     <t>5.81</t>
@@ -772,7 +772,7 @@
     <t>90.0</t>
   </si>
   <si>
-    <t>/media/goods/90.jpg</t>
+    <t>90.jpg</t>
   </si>
   <si>
     <t>5.80</t>
@@ -781,7 +781,7 @@
     <t>89.0</t>
   </si>
   <si>
-    <t>/media/goods/89.jpg</t>
+    <t>89.jpg</t>
   </si>
   <si>
     <t>5.79</t>
@@ -790,7 +790,7 @@
     <t>88.0</t>
   </si>
   <si>
-    <t>/media/goods/88.jpg</t>
+    <t>88.jpg</t>
   </si>
   <si>
     <t>5.78</t>
@@ -799,7 +799,7 @@
     <t>87.0</t>
   </si>
   <si>
-    <t>/media/goods/87.jpg</t>
+    <t>87.jpg</t>
   </si>
   <si>
     <t>5.77</t>
@@ -808,7 +808,7 @@
     <t>86.0</t>
   </si>
   <si>
-    <t>/media/goods/86.jpg</t>
+    <t>86.jpg</t>
   </si>
   <si>
     <t>5.76</t>
@@ -817,7 +817,7 @@
     <t>85.0</t>
   </si>
   <si>
-    <t>/media/goods/85.jpg</t>
+    <t>85.jpg</t>
   </si>
   <si>
     <t>5.75</t>
@@ -826,7 +826,7 @@
     <t>84.0</t>
   </si>
   <si>
-    <t>/media/goods/84.jpg</t>
+    <t>84.jpg</t>
   </si>
   <si>
     <t>5.74</t>
@@ -835,7 +835,7 @@
     <t>83.0</t>
   </si>
   <si>
-    <t>/media/goods/83.jpg</t>
+    <t>83.jpg</t>
   </si>
   <si>
     <t>5.73</t>
@@ -844,7 +844,7 @@
     <t>82.0</t>
   </si>
   <si>
-    <t>/media/goods/82.jpg</t>
+    <t>82.jpg</t>
   </si>
   <si>
     <t>5.72</t>
@@ -853,7 +853,7 @@
     <t>81.0</t>
   </si>
   <si>
-    <t>/media/goods/81.jpg</t>
+    <t>81.jpg</t>
   </si>
   <si>
     <t>5.71</t>
@@ -862,7 +862,7 @@
     <t>80.0</t>
   </si>
   <si>
-    <t>/media/goods/80.jpg</t>
+    <t>80.jpg</t>
   </si>
   <si>
     <t>5.70</t>
@@ -871,7 +871,7 @@
     <t>79.0</t>
   </si>
   <si>
-    <t>/media/goods/79.jpg</t>
+    <t>79.jpg</t>
   </si>
   <si>
     <t>5.69</t>
@@ -880,7 +880,7 @@
     <t>78.0</t>
   </si>
   <si>
-    <t>/media/goods/78.jpg</t>
+    <t>78.jpg</t>
   </si>
   <si>
     <t>5.68</t>
@@ -889,7 +889,7 @@
     <t>77.0</t>
   </si>
   <si>
-    <t>/media/goods/77.jpg</t>
+    <t>77.jpg</t>
   </si>
   <si>
     <t>5.67</t>
@@ -898,7 +898,7 @@
     <t>76.0</t>
   </si>
   <si>
-    <t>/media/goods/76.jpg</t>
+    <t>76.jpg</t>
   </si>
   <si>
     <t>5.66</t>
@@ -907,7 +907,7 @@
     <t>75.0</t>
   </si>
   <si>
-    <t>/media/goods/75.jpg</t>
+    <t>75.jpg</t>
   </si>
   <si>
     <t>5.65</t>
@@ -916,7 +916,7 @@
     <t>74.0</t>
   </si>
   <si>
-    <t>/media/goods/74.jpg</t>
+    <t>74.jpg</t>
   </si>
   <si>
     <t>5.64</t>
@@ -925,7 +925,7 @@
     <t>73.0</t>
   </si>
   <si>
-    <t>/media/goods/73.jpg</t>
+    <t>73.jpg</t>
   </si>
   <si>
     <t>5.63</t>
@@ -934,7 +934,7 @@
     <t>72.0</t>
   </si>
   <si>
-    <t>/media/goods/72.jpg</t>
+    <t>72.jpg</t>
   </si>
   <si>
     <t>5.62</t>
@@ -943,7 +943,7 @@
     <t>71.0</t>
   </si>
   <si>
-    <t>/media/goods/71.jpg</t>
+    <t>71.jpg</t>
   </si>
   <si>
     <t>5.61</t>
@@ -952,7 +952,7 @@
     <t>70.0</t>
   </si>
   <si>
-    <t>/media/goods/70.jpg</t>
+    <t>70.jpg</t>
   </si>
   <si>
     <t>5.60</t>
@@ -961,7 +961,7 @@
     <t>69.0</t>
   </si>
   <si>
-    <t>/media/goods/69.jpg</t>
+    <t>69.jpg</t>
   </si>
   <si>
     <t>5.59</t>
@@ -970,7 +970,7 @@
     <t>68.0</t>
   </si>
   <si>
-    <t>/media/goods/68.jpg</t>
+    <t>68.jpg</t>
   </si>
   <si>
     <t>5.58</t>
@@ -979,7 +979,7 @@
     <t>67.0</t>
   </si>
   <si>
-    <t>/media/goods/67.jpg</t>
+    <t>67.jpg</t>
   </si>
   <si>
     <t>5.57</t>
@@ -988,7 +988,7 @@
     <t>66.0</t>
   </si>
   <si>
-    <t>/media/goods/66.jpg</t>
+    <t>66.jpg</t>
   </si>
   <si>
     <t>5.56</t>
@@ -997,7 +997,7 @@
     <t>65.0</t>
   </si>
   <si>
-    <t>/media/goods/65.jpg</t>
+    <t>65.jpg</t>
   </si>
   <si>
     <t>5.55</t>
@@ -1006,7 +1006,7 @@
     <t>64.0</t>
   </si>
   <si>
-    <t>/media/goods/64.jpg</t>
+    <t>64.jpg</t>
   </si>
   <si>
     <t>5.54</t>
@@ -1015,7 +1015,7 @@
     <t>63.0</t>
   </si>
   <si>
-    <t>/media/goods/63.jpg</t>
+    <t>63.jpg</t>
   </si>
   <si>
     <t>5.53</t>
@@ -1024,7 +1024,7 @@
     <t>62.0</t>
   </si>
   <si>
-    <t>/media/goods/62.jpg</t>
+    <t>62.jpg</t>
   </si>
   <si>
     <t>5.52</t>
@@ -1033,7 +1033,7 @@
     <t>61.0</t>
   </si>
   <si>
-    <t>/media/goods/61.jpg</t>
+    <t>61.jpg</t>
   </si>
   <si>
     <t>5.51</t>
@@ -1042,7 +1042,7 @@
     <t>60.0</t>
   </si>
   <si>
-    <t>/media/goods/60.jpg</t>
+    <t>60.jpg</t>
   </si>
   <si>
     <t>5.50</t>
@@ -1051,7 +1051,7 @@
     <t>59.0</t>
   </si>
   <si>
-    <t>/media/goods/59.jpg</t>
+    <t>59.jpg</t>
   </si>
   <si>
     <t>5.49</t>
@@ -1060,7 +1060,7 @@
     <t>58.0</t>
   </si>
   <si>
-    <t>/media/goods/58.jpg</t>
+    <t>58.jpg</t>
   </si>
   <si>
     <t>5.48</t>
@@ -1069,7 +1069,7 @@
     <t>57.0</t>
   </si>
   <si>
-    <t>/media/goods/57.jpg</t>
+    <t>57.jpg</t>
   </si>
   <si>
     <t>5.47</t>
@@ -1078,7 +1078,7 @@
     <t>56.0</t>
   </si>
   <si>
-    <t>/media/goods/56.jpg</t>
+    <t>56.jpg</t>
   </si>
   <si>
     <t>5.46</t>
@@ -1087,7 +1087,7 @@
     <t>55.0</t>
   </si>
   <si>
-    <t>/media/goods/55.jpg</t>
+    <t>55.jpg</t>
   </si>
   <si>
     <t>5.45</t>
@@ -1096,7 +1096,7 @@
     <t>54.0</t>
   </si>
   <si>
-    <t>/media/goods/54.jpg</t>
+    <t>54.jpg</t>
   </si>
   <si>
     <t>5.44</t>
@@ -1105,7 +1105,7 @@
     <t>53.0</t>
   </si>
   <si>
-    <t>/media/goods/53.jpg</t>
+    <t>53.jpg</t>
   </si>
   <si>
     <t>5.43</t>
@@ -1114,7 +1114,7 @@
     <t>50.0</t>
   </si>
   <si>
-    <t>/media/goods/50.jpg</t>
+    <t>50.jpg</t>
   </si>
   <si>
     <t>5.42</t>
@@ -1123,7 +1123,7 @@
     <t>49Е</t>
   </si>
   <si>
-    <t>/media/goods/49E.jpg</t>
+    <t>49E.jpg</t>
   </si>
   <si>
     <t>5.41</t>
@@ -1132,7 +1132,7 @@
     <t>49.0</t>
   </si>
   <si>
-    <t>/media/goods/49.jpg</t>
+    <t>49.jpg</t>
   </si>
   <si>
     <t>5.40</t>
@@ -1141,7 +1141,7 @@
     <t>48Е</t>
   </si>
   <si>
-    <t>/media/goods/48E.jpg</t>
+    <t>48E.jpg</t>
   </si>
   <si>
     <t>5.39</t>
@@ -1150,7 +1150,7 @@
     <t>48.0</t>
   </si>
   <si>
-    <t>/media/goods/48.jpg</t>
+    <t>48.jpg</t>
   </si>
   <si>
     <t>5.38</t>
@@ -1159,7 +1159,7 @@
     <t>47.0</t>
   </si>
   <si>
-    <t>/media/goods/47.jpg</t>
+    <t>47.jpg</t>
   </si>
   <si>
     <t>5.37</t>
@@ -1168,7 +1168,7 @@
     <t>46.0</t>
   </si>
   <si>
-    <t>/media/goods/46.jpg</t>
+    <t>46.jpg</t>
   </si>
   <si>
     <t>5.36</t>
@@ -1177,7 +1177,7 @@
     <t>45.0</t>
   </si>
   <si>
-    <t>/media/goods/45.jpg</t>
+    <t>45.jpg</t>
   </si>
   <si>
     <t>5.35</t>
@@ -1186,7 +1186,7 @@
     <t>44.0</t>
   </si>
   <si>
-    <t>/media/goods/44.jpg</t>
+    <t>44.jpg</t>
   </si>
   <si>
     <t>5.34</t>
@@ -1195,7 +1195,7 @@
     <t>43.0</t>
   </si>
   <si>
-    <t>/media/goods/43.jpg</t>
+    <t>43.jpg</t>
   </si>
   <si>
     <t>5.33</t>
@@ -1204,7 +1204,7 @@
     <t>42Е</t>
   </si>
   <si>
-    <t>/media/goods/42E.jpg</t>
+    <t>42E.jpg</t>
   </si>
   <si>
     <t>5.32</t>
@@ -1213,7 +1213,7 @@
     <t>42.0</t>
   </si>
   <si>
-    <t>/media/goods/42.jpg</t>
+    <t>42.jpg</t>
   </si>
   <si>
     <t>5.31</t>
@@ -1222,7 +1222,7 @@
     <t>41.0</t>
   </si>
   <si>
-    <t>/media/goods/41.jpg</t>
+    <t>41.jpg</t>
   </si>
   <si>
     <t>5.30</t>
@@ -1231,7 +1231,7 @@
     <t>40.0</t>
   </si>
   <si>
-    <t>/media/goods/40.jpg</t>
+    <t>40.jpg</t>
   </si>
   <si>
     <t>5.29</t>
@@ -1240,7 +1240,7 @@
     <t>39.0</t>
   </si>
   <si>
-    <t>/media/goods/39.jpg</t>
+    <t>39.jpg</t>
   </si>
   <si>
     <t>5.28</t>
@@ -1249,7 +1249,7 @@
     <t>38.0</t>
   </si>
   <si>
-    <t>/media/goods/38.jpg</t>
+    <t>38.jpg</t>
   </si>
   <si>
     <t>5.27</t>
@@ -1258,7 +1258,7 @@
     <t>37.0</t>
   </si>
   <si>
-    <t>/media/goods/37.jpg</t>
+    <t>37.jpg</t>
   </si>
   <si>
     <t>5.26</t>
@@ -1267,7 +1267,7 @@
     <t>36.0</t>
   </si>
   <si>
-    <t>/media/goods/36.jpg</t>
+    <t>36.jpg</t>
   </si>
   <si>
     <t>5.25</t>
@@ -1276,7 +1276,7 @@
     <t>35.0</t>
   </si>
   <si>
-    <t>/media/goods/35.jpg</t>
+    <t>35.jpg</t>
   </si>
   <si>
     <t>5.24</t>
@@ -1285,7 +1285,7 @@
     <t>34.0</t>
   </si>
   <si>
-    <t>/media/goods/34.jpg</t>
+    <t>34.jpg</t>
   </si>
   <si>
     <t>5.23</t>
@@ -1294,7 +1294,7 @@
     <t>33.0</t>
   </si>
   <si>
-    <t>/media/goods/33.jpg</t>
+    <t>33.jpg</t>
   </si>
   <si>
     <t>5.22</t>
@@ -1303,7 +1303,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>/media/goods/32.jpg</t>
+    <t>32.jpg</t>
   </si>
   <si>
     <t>5.21</t>
@@ -1312,7 +1312,7 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>/media/goods/31.jpg</t>
+    <t>31.jpg</t>
   </si>
   <si>
     <t>5.20</t>
@@ -1321,7 +1321,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>/media/goods/30.jpg</t>
+    <t>30.jpg</t>
   </si>
   <si>
     <t>5.19</t>
@@ -1330,7 +1330,7 @@
     <t>29.0</t>
   </si>
   <si>
-    <t>/media/goods/29.jpg</t>
+    <t>29.jpg</t>
   </si>
   <si>
     <t>5.18</t>
@@ -1339,7 +1339,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>/media/goods/27.jpg</t>
+    <t>27.jpg</t>
   </si>
   <si>
     <t>5.17</t>
@@ -1348,7 +1348,7 @@
     <t>26.0</t>
   </si>
   <si>
-    <t>/media/goods/26.jpg</t>
+    <t>26.jpg</t>
   </si>
   <si>
     <t>5.16</t>
@@ -1357,7 +1357,7 @@
     <t>23.0</t>
   </si>
   <si>
-    <t>/media/goods/23.jpg</t>
+    <t>23.jpg</t>
   </si>
   <si>
     <t>5.15</t>
@@ -1366,7 +1366,7 @@
     <t>22.0</t>
   </si>
   <si>
-    <t>/media/goods/22.jpg</t>
+    <t>22.jpg</t>
   </si>
   <si>
     <t>5.14</t>
@@ -1375,7 +1375,7 @@
     <t>21.0</t>
   </si>
   <si>
-    <t>/media/goods/21.jpg</t>
+    <t>21.jpg</t>
   </si>
   <si>
     <t>5.13</t>
@@ -1384,7 +1384,7 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>/media/goods/20.jpg</t>
+    <t>20.jpg</t>
   </si>
   <si>
     <t>5.12</t>
@@ -1393,7 +1393,7 @@
     <t>19.0</t>
   </si>
   <si>
-    <t>/media/goods/19.jpg</t>
+    <t>19.jpg</t>
   </si>
   <si>
     <t>5.11</t>
@@ -1402,7 +1402,7 @@
     <t>18.0</t>
   </si>
   <si>
-    <t>/media/goods/18.jpg</t>
+    <t>18.jpg</t>
   </si>
   <si>
     <t>5.10</t>
@@ -1411,7 +1411,7 @@
     <t>17.0</t>
   </si>
   <si>
-    <t>/media/goods/17.jpg</t>
+    <t>17.jpg</t>
   </si>
   <si>
     <t>5.9</t>
@@ -1420,7 +1420,7 @@
     <t>16.0</t>
   </si>
   <si>
-    <t>/media/goods/16.jpg</t>
+    <t>16.jpg</t>
   </si>
   <si>
     <t>5.8</t>
@@ -1429,7 +1429,7 @@
     <t>15.0</t>
   </si>
   <si>
-    <t>/media/goods/15.jpg</t>
+    <t>15.jpg</t>
   </si>
   <si>
     <t>5.7</t>
@@ -1438,7 +1438,7 @@
     <t>14.0</t>
   </si>
   <si>
-    <t>/media/goods/14.jpg</t>
+    <t>14.jpg</t>
   </si>
   <si>
     <t>5.6</t>
@@ -1447,7 +1447,7 @@
     <t>13.0</t>
   </si>
   <si>
-    <t>/media/goods/13.jpg</t>
+    <t>13.jpg</t>
   </si>
   <si>
     <t>5.5</t>
@@ -1456,7 +1456,7 @@
     <t>12.0</t>
   </si>
   <si>
-    <t>/media/goods/12.jpg</t>
+    <t>12.jpg</t>
   </si>
   <si>
     <t>5.4</t>
@@ -1465,7 +1465,7 @@
     <t>11.0</t>
   </si>
   <si>
-    <t>/media/goods/11.jpg</t>
+    <t>11.jpg</t>
   </si>
   <si>
     <t>5.3</t>
@@ -1474,7 +1474,7 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>/media/goods/10.jpg</t>
+    <t>10.jpg</t>
   </si>
   <si>
     <t>5.2</t>
@@ -1486,7 +1486,7 @@
     <t>Тип 1</t>
   </si>
   <si>
-    <t>/media/goods/type-1.png</t>
+    <t>type-1.png</t>
   </si>
   <si>
     <t>0</t>
@@ -1495,199 +1495,199 @@
     <t>Тип 2</t>
   </si>
   <si>
-    <t>/media/goods/2.png</t>
+    <t>2.png</t>
   </si>
   <si>
     <t>Тип 3</t>
   </si>
   <si>
-    <t>/media/goods/3.png</t>
+    <t>3.png</t>
   </si>
   <si>
     <t>Тип 4</t>
   </si>
   <si>
-    <t>/media/goods/4.png</t>
+    <t>4.png</t>
   </si>
   <si>
     <t>Тип 5</t>
   </si>
   <si>
-    <t>/media/goods/5.png</t>
+    <t>5.png</t>
   </si>
   <si>
     <t>Тип 6</t>
   </si>
   <si>
-    <t>/media/goods/6.png</t>
+    <t>6.png</t>
   </si>
   <si>
     <t>Тип 7</t>
   </si>
   <si>
-    <t>/media/goods/7.png</t>
+    <t>7.png</t>
   </si>
   <si>
     <t>Тип 8</t>
   </si>
   <si>
-    <t>/media/goods/8.png</t>
+    <t>8.png</t>
   </si>
   <si>
     <t>Тип 9</t>
   </si>
   <si>
-    <t>/media/goods/9.png</t>
+    <t>9.png</t>
   </si>
   <si>
     <t>Тип 10</t>
   </si>
   <si>
-    <t>/media/goods/10.png</t>
+    <t>10.png</t>
   </si>
   <si>
     <t>Тип 11</t>
   </si>
   <si>
-    <t>/media/goods/11.png</t>
+    <t>11.png</t>
   </si>
   <si>
     <t>Тип 12</t>
   </si>
   <si>
-    <t>/media/goods/12.png</t>
+    <t>12.png</t>
   </si>
   <si>
     <t>Тип 13</t>
   </si>
   <si>
-    <t>/media/goods/13.png</t>
+    <t>13.png</t>
   </si>
   <si>
     <t>Тип 14</t>
   </si>
   <si>
-    <t>/media/goods/14.png</t>
+    <t>14.png</t>
   </si>
   <si>
     <t>Тип 15</t>
   </si>
   <si>
-    <t>/media/goods/15.png</t>
+    <t>15.png</t>
   </si>
   <si>
     <t>Тип 16</t>
   </si>
   <si>
-    <t>/media/goods/16.png</t>
+    <t>16.png</t>
   </si>
   <si>
     <t>Тип 17</t>
   </si>
   <si>
-    <t>/media/goods/17.png</t>
+    <t>17.png</t>
   </si>
   <si>
     <t>Тип 18</t>
   </si>
   <si>
-    <t>/media/goods/18.png</t>
+    <t>18.png</t>
   </si>
   <si>
     <t>Тип 19</t>
   </si>
   <si>
-    <t>/media/goods/19.png</t>
+    <t>19.png</t>
   </si>
   <si>
     <t>Тип 20</t>
   </si>
   <si>
-    <t>/media/goods/20.png</t>
+    <t>20.png</t>
   </si>
   <si>
     <t>Тип 21</t>
   </si>
   <si>
-    <t>/media/goods/21.png</t>
+    <t>21.png</t>
   </si>
   <si>
     <t>Тип 22</t>
   </si>
   <si>
-    <t>/media/goods/22.png</t>
+    <t>22.png</t>
   </si>
   <si>
     <t>Тип 23</t>
   </si>
   <si>
-    <t>/media/goods/23.png</t>
+    <t>23.png</t>
   </si>
   <si>
     <t>Тип 24</t>
   </si>
   <si>
-    <t>/media/goods/24.png</t>
+    <t>24.png</t>
   </si>
   <si>
     <t>Тип 25</t>
   </si>
   <si>
-    <t>/media/goods/25.png</t>
+    <t>25.png</t>
   </si>
   <si>
     <t>Тип 26</t>
   </si>
   <si>
-    <t>/media/goods/26.png</t>
+    <t>26.png</t>
   </si>
   <si>
     <t>Тип 27</t>
   </si>
   <si>
-    <t>/media/goods/27.png</t>
+    <t>27.png</t>
   </si>
   <si>
     <t>Тип 28</t>
   </si>
   <si>
-    <t>/media/goods/28.png</t>
+    <t>28.png</t>
   </si>
   <si>
     <t>Тип 29</t>
   </si>
   <si>
-    <t>/media/goods/29.png</t>
+    <t>29.png</t>
   </si>
   <si>
     <t>Тип 30</t>
   </si>
   <si>
-    <t>/media/goods/30.png</t>
+    <t>30.png</t>
   </si>
   <si>
     <t>Тип 31</t>
   </si>
   <si>
-    <t>/media/goods/31.png</t>
+    <t>31.png</t>
   </si>
   <si>
     <t>Тип 32</t>
   </si>
   <si>
-    <t>/media/goods/32.png</t>
+    <t>32.png</t>
   </si>
   <si>
     <t>Тип 33</t>
   </si>
   <si>
-    <t>/media/goods/33.png</t>
+    <t>33.png</t>
   </si>
   <si>
     <t>Тип 36</t>
   </si>
   <si>
-    <t>/media/goods/33_f9fJBYO.png</t>
+    <t>33_f9fJBYO.png</t>
   </si>
   <si>
     <t>Сопутствующие товары</t>
@@ -1696,139 +1696,139 @@
     <t>Лампада 1</t>
   </si>
   <si>
-    <t>/media/goods/_704.png</t>
+    <t>_704.png</t>
   </si>
   <si>
     <t>Шар 5</t>
   </si>
   <si>
-    <t>/media/goods/4.jpg</t>
+    <t>4.jpg</t>
   </si>
   <si>
     <t>Лавочки 1</t>
   </si>
   <si>
-    <t>/media/goods/4c8ba11f061e0ad8d7b25f78e0eae182.png</t>
+    <t>4c8ba11f061e0ad8d7b25f78e0eae182.png</t>
   </si>
   <si>
     <t>Bаза-5</t>
   </si>
   <si>
-    <t>/media/goods/6_dSfkoKU.png</t>
+    <t>6_dSfkoKU.png</t>
   </si>
   <si>
     <t>Лампада 6</t>
   </si>
   <si>
-    <t>/media/goods/-8-002.jpg</t>
+    <t>-8-002.jpg</t>
   </si>
   <si>
     <t>Bаза 6</t>
   </si>
   <si>
-    <t>/media/goods/97c28bd0b2249b7d740965fe503f9ec1-600x600.jpg</t>
+    <t>97c28bd0b2249b7d740965fe503f9ec1-600x600.jpg</t>
   </si>
   <si>
     <t>Bаза 3</t>
   </si>
   <si>
-    <t>/media/goods/166b6005ef0e22f1f7403f0a24f92873.jpg</t>
+    <t>166b6005ef0e22f1f7403f0a24f92873.jpg</t>
   </si>
   <si>
     <t>Bаза 4</t>
   </si>
   <si>
-    <t>/media/goods/44657_347431770c91acfa66668f816b15c843.jpg</t>
+    <t>44657_347431770c91acfa66668f816b15c843.jpg</t>
   </si>
   <si>
     <t>Bаза</t>
   </si>
   <si>
-    <t>/media/goods/24364006.jpg</t>
+    <t>24364006.jpg</t>
   </si>
   <si>
     <t>Bаза 2</t>
   </si>
   <si>
-    <t>/media/goods/39160295.jpg</t>
+    <t>39160295.jpg</t>
   </si>
   <si>
     <t>Шар 4</t>
   </si>
   <si>
-    <t>/media/goods/768074399_w640_h640_shary-granitnye-tokovskie.jpg</t>
+    <t>768074399_w640_h640_shary-granitnye-tokovskie.jpg</t>
   </si>
   <si>
     <t>Лампада 5</t>
   </si>
   <si>
-    <t>/media/goods/full___________________________________6_1.jpg</t>
+    <t>full___________________________________6_1.jpg</t>
   </si>
   <si>
     <t>Лампада 4</t>
   </si>
   <si>
-    <t>/media/goods/lampada-lezniki.jpg</t>
+    <t>lampada-lezniki.jpg</t>
   </si>
   <si>
     <t>Шар 3</t>
   </si>
   <si>
-    <t>/media/goods/shar-1.jpg</t>
+    <t>shar-1.jpg</t>
   </si>
   <si>
     <t>Шар 2</t>
   </si>
   <si>
-    <t>/media/goods/shar-2.jpg</t>
+    <t>shar-2.jpg</t>
   </si>
   <si>
     <t>Лампада 3</t>
   </si>
   <si>
-    <t>/media/goods/shar-3.jpg</t>
+    <t>shar-3.jpg</t>
   </si>
   <si>
     <t>Шар 1</t>
   </si>
   <si>
-    <t>/media/goods/shar-iz-granita-mansur-15sm-na-mogilu-0003-700x800.jpg</t>
+    <t>shar-iz-granita-mansur-15sm-na-mogilu-0003-700x800.jpg</t>
   </si>
   <si>
     <t>Стол 4</t>
   </si>
   <si>
-    <t>/media/goods/stol001.png</t>
+    <t>stol001.png</t>
   </si>
   <si>
     <t>Стол 3</t>
   </si>
   <si>
-    <t>/media/goods/stol02.png</t>
+    <t>stol02.png</t>
   </si>
   <si>
     <t>Стол 2</t>
   </si>
   <si>
-    <t>/media/goods/stol03.png</t>
+    <t>stol03.png</t>
   </si>
   <si>
     <t>Стол 1</t>
   </si>
   <si>
-    <t>/media/goods/stol04.png</t>
+    <t>stol04.png</t>
   </si>
   <si>
     <t>Лампада 2</t>
   </si>
   <si>
-    <t>/media/goods/thumbs.1.jpg</t>
+    <t>thumbs.1.jpg</t>
   </si>
   <si>
     <t>Bаза 1</t>
   </si>
   <si>
-    <t>/media/goods/v024-e1695901768645.jpg</t>
+    <t>v024-e1695901768645.jpg</t>
   </si>
 </sst>
 </file>
@@ -1862,11 +1862,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2094,7 +2097,8 @@
     <col customWidth="1" min="5" max="5" width="17.43"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
     <col customWidth="1" min="7" max="7" width="20.86"/>
-    <col customWidth="1" min="8" max="9" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="22.43"/>
+    <col customWidth="1" min="9" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="14.14"/>
     <col customWidth="1" min="11" max="11" width="21.29"/>
     <col customWidth="1" min="12" max="13" width="8.71"/>
@@ -2159,7 +2163,7 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1">
@@ -2203,7 +2207,7 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="1">
@@ -2247,7 +2251,7 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="1">
@@ -2291,7 +2295,7 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="1">
@@ -2335,7 +2339,7 @@
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="1">
@@ -2379,7 +2383,7 @@
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="1">
@@ -2423,7 +2427,7 @@
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1">
@@ -2467,7 +2471,7 @@
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="1">
@@ -2511,7 +2515,7 @@
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="1">
@@ -2555,7 +2559,7 @@
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="1">
@@ -2599,7 +2603,7 @@
       <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="1">
@@ -2643,7 +2647,7 @@
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1">
@@ -2687,7 +2691,7 @@
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="1">
@@ -2731,7 +2735,7 @@
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="1">
@@ -2775,7 +2779,7 @@
       <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1">
@@ -2819,7 +2823,7 @@
       <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="1">
@@ -2863,7 +2867,7 @@
       <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="1">
@@ -2907,7 +2911,7 @@
       <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="1">
@@ -2951,7 +2955,7 @@
       <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="1">
@@ -2995,7 +2999,7 @@
       <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="1">
@@ -3039,7 +3043,7 @@
       <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="1">
@@ -3083,7 +3087,7 @@
       <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="1">
@@ -3127,7 +3131,7 @@
       <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="1">
@@ -3171,7 +3175,7 @@
       <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="1">
@@ -3215,7 +3219,7 @@
       <c r="C26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="1">
@@ -3259,7 +3263,7 @@
       <c r="C27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="1">
@@ -3303,7 +3307,7 @@
       <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="1">
@@ -3347,7 +3351,7 @@
       <c r="C29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="1">
@@ -3391,7 +3395,7 @@
       <c r="C30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="1">
@@ -3435,7 +3439,7 @@
       <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="1">
@@ -3479,7 +3483,7 @@
       <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="1">
@@ -3523,7 +3527,7 @@
       <c r="C33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E33" s="1">
@@ -3567,7 +3571,7 @@
       <c r="C34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E34" s="1">
@@ -3611,7 +3615,7 @@
       <c r="C35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="1">
@@ -3655,7 +3659,7 @@
       <c r="C36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E36" s="1">
@@ -3699,7 +3703,7 @@
       <c r="C37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E37" s="1">
@@ -3743,7 +3747,7 @@
       <c r="C38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E38" s="1">
@@ -3787,7 +3791,7 @@
       <c r="C39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="1">
@@ -3831,7 +3835,7 @@
       <c r="C40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="1">
@@ -3875,7 +3879,7 @@
       <c r="C41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E41" s="1">
@@ -3919,7 +3923,7 @@
       <c r="C42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E42" s="1">
@@ -3963,7 +3967,7 @@
       <c r="C43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E43" s="1">
@@ -4007,7 +4011,7 @@
       <c r="C44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E44" s="1">
@@ -4051,7 +4055,7 @@
       <c r="C45" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E45" s="1">
@@ -4095,7 +4099,7 @@
       <c r="C46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E46" s="1">
@@ -4139,7 +4143,7 @@
       <c r="C47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E47" s="1">
@@ -4183,7 +4187,7 @@
       <c r="C48" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E48" s="1">
@@ -4227,7 +4231,7 @@
       <c r="C49" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E49" s="1">
@@ -4271,7 +4275,7 @@
       <c r="C50" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E50" s="1">
@@ -4315,7 +4319,7 @@
       <c r="C51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E51" s="1">
@@ -4359,7 +4363,7 @@
       <c r="C52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E52" s="1">
@@ -4403,7 +4407,7 @@
       <c r="C53" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E53" s="1">
@@ -4447,7 +4451,7 @@
       <c r="C54" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E54" s="1">
@@ -4491,7 +4495,7 @@
       <c r="C55" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E55" s="1">
@@ -4535,7 +4539,7 @@
       <c r="C56" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E56" s="1">
@@ -4579,7 +4583,7 @@
       <c r="C57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>190</v>
       </c>
       <c r="E57" s="1">
@@ -4623,7 +4627,7 @@
       <c r="C58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E58" s="1">
@@ -4667,7 +4671,7 @@
       <c r="C59" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E59" s="1">
@@ -4711,7 +4715,7 @@
       <c r="C60" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E60" s="1">
@@ -4755,7 +4759,7 @@
       <c r="C61" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E61" s="1">
@@ -4799,7 +4803,7 @@
       <c r="C62" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E62" s="1">
@@ -4843,7 +4847,7 @@
       <c r="C63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E63" s="1">
@@ -4887,7 +4891,7 @@
       <c r="C64" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E64" s="1">
@@ -4931,7 +4935,7 @@
       <c r="C65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E65" s="1">
@@ -4975,7 +4979,7 @@
       <c r="C66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E66" s="1">
@@ -5019,7 +5023,7 @@
       <c r="C67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E67" s="1">
@@ -5063,7 +5067,7 @@
       <c r="C68" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E68" s="1">
@@ -5107,7 +5111,7 @@
       <c r="C69" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E69" s="1">
@@ -5151,7 +5155,7 @@
       <c r="C70" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E70" s="1">
@@ -5195,7 +5199,7 @@
       <c r="C71" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E71" s="1">
@@ -5239,7 +5243,7 @@
       <c r="C72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>235</v>
       </c>
       <c r="E72" s="1">
@@ -5283,7 +5287,7 @@
       <c r="C73" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E73" s="1">
@@ -5327,7 +5331,7 @@
       <c r="C74" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E74" s="1">
@@ -5371,7 +5375,7 @@
       <c r="C75" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>244</v>
       </c>
       <c r="E75" s="1">
@@ -5415,7 +5419,7 @@
       <c r="C76" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E76" s="1">
@@ -5459,7 +5463,7 @@
       <c r="C77" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E77" s="1">
@@ -5503,7 +5507,7 @@
       <c r="C78" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E78" s="1">
@@ -5547,7 +5551,7 @@
       <c r="C79" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E79" s="1">
@@ -5591,7 +5595,7 @@
       <c r="C80" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E80" s="1">
@@ -5635,7 +5639,7 @@
       <c r="C81" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E81" s="1">
@@ -5679,7 +5683,7 @@
       <c r="C82" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>265</v>
       </c>
       <c r="E82" s="1">
@@ -5723,7 +5727,7 @@
       <c r="C83" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E83" s="1">
@@ -5767,7 +5771,7 @@
       <c r="C84" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E84" s="1">
@@ -5811,7 +5815,7 @@
       <c r="C85" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>274</v>
       </c>
       <c r="E85" s="1">
@@ -5855,7 +5859,7 @@
       <c r="C86" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E86" s="1">
@@ -5899,7 +5903,7 @@
       <c r="C87" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>280</v>
       </c>
       <c r="E87" s="1">
@@ -5943,7 +5947,7 @@
       <c r="C88" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E88" s="1">
@@ -5987,7 +5991,7 @@
       <c r="C89" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E89" s="1">
@@ -6031,7 +6035,7 @@
       <c r="C90" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E90" s="1">
@@ -6075,7 +6079,7 @@
       <c r="C91" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E91" s="1">
@@ -6119,7 +6123,7 @@
       <c r="C92" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E92" s="1">
@@ -6163,7 +6167,7 @@
       <c r="C93" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E93" s="1">
@@ -6207,7 +6211,7 @@
       <c r="C94" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>301</v>
       </c>
       <c r="E94" s="1">
@@ -6251,7 +6255,7 @@
       <c r="C95" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>304</v>
       </c>
       <c r="E95" s="1">
@@ -6295,7 +6299,7 @@
       <c r="C96" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>307</v>
       </c>
       <c r="E96" s="1">
@@ -6339,7 +6343,7 @@
       <c r="C97" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E97" s="1">
@@ -6383,7 +6387,7 @@
       <c r="C98" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>313</v>
       </c>
       <c r="E98" s="1">
@@ -6427,7 +6431,7 @@
       <c r="C99" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>316</v>
       </c>
       <c r="E99" s="1">
@@ -6471,7 +6475,7 @@
       <c r="C100" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E100" s="1">
@@ -6515,7 +6519,7 @@
       <c r="C101" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>322</v>
       </c>
       <c r="E101" s="1">
@@ -6559,7 +6563,7 @@
       <c r="C102" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E102" s="1">
@@ -6603,7 +6607,7 @@
       <c r="C103" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>328</v>
       </c>
       <c r="E103" s="1">
@@ -6647,7 +6651,7 @@
       <c r="C104" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>331</v>
       </c>
       <c r="E104" s="1">
@@ -6691,7 +6695,7 @@
       <c r="C105" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>334</v>
       </c>
       <c r="E105" s="1">
@@ -6735,7 +6739,7 @@
       <c r="C106" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>337</v>
       </c>
       <c r="E106" s="1">
@@ -6779,7 +6783,7 @@
       <c r="C107" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>340</v>
       </c>
       <c r="E107" s="1">
@@ -6823,7 +6827,7 @@
       <c r="C108" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>343</v>
       </c>
       <c r="E108" s="1">
@@ -6867,7 +6871,7 @@
       <c r="C109" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>346</v>
       </c>
       <c r="E109" s="1">
@@ -6911,7 +6915,7 @@
       <c r="C110" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>349</v>
       </c>
       <c r="E110" s="1">
@@ -6955,7 +6959,7 @@
       <c r="C111" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>352</v>
       </c>
       <c r="E111" s="1">
@@ -6999,7 +7003,7 @@
       <c r="C112" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>355</v>
       </c>
       <c r="E112" s="1">
@@ -7043,7 +7047,7 @@
       <c r="C113" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>358</v>
       </c>
       <c r="E113" s="1">
@@ -7087,7 +7091,7 @@
       <c r="C114" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E114" s="1">
@@ -7131,7 +7135,7 @@
       <c r="C115" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>364</v>
       </c>
       <c r="E115" s="1">
@@ -7175,7 +7179,7 @@
       <c r="C116" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>367</v>
       </c>
       <c r="E116" s="1">
@@ -7219,7 +7223,7 @@
       <c r="C117" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E117" s="1">
@@ -7263,7 +7267,7 @@
       <c r="C118" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E118" s="1">
@@ -7307,7 +7311,7 @@
       <c r="C119" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E119" s="1">
@@ -7351,7 +7355,7 @@
       <c r="C120" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>379</v>
       </c>
       <c r="E120" s="1">
@@ -7395,7 +7399,7 @@
       <c r="C121" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E121" s="1">
@@ -7439,7 +7443,7 @@
       <c r="C122" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E122" s="1">
@@ -7483,7 +7487,7 @@
       <c r="C123" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>388</v>
       </c>
       <c r="E123" s="1">
@@ -7527,7 +7531,7 @@
       <c r="C124" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>391</v>
       </c>
       <c r="E124" s="1">
@@ -7571,7 +7575,7 @@
       <c r="C125" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>394</v>
       </c>
       <c r="E125" s="1">
@@ -7615,7 +7619,7 @@
       <c r="C126" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E126" s="1">
@@ -7659,7 +7663,7 @@
       <c r="C127" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>400</v>
       </c>
       <c r="E127" s="1">
@@ -7703,7 +7707,7 @@
       <c r="C128" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>403</v>
       </c>
       <c r="E128" s="1">
@@ -7747,7 +7751,7 @@
       <c r="C129" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>406</v>
       </c>
       <c r="E129" s="1">
@@ -7791,7 +7795,7 @@
       <c r="C130" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>409</v>
       </c>
       <c r="E130" s="1">
@@ -7835,7 +7839,7 @@
       <c r="C131" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>412</v>
       </c>
       <c r="E131" s="1">
@@ -7879,7 +7883,7 @@
       <c r="C132" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>415</v>
       </c>
       <c r="E132" s="1">
@@ -7923,7 +7927,7 @@
       <c r="C133" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>418</v>
       </c>
       <c r="E133" s="1">
@@ -7967,7 +7971,7 @@
       <c r="C134" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E134" s="1">
@@ -8011,7 +8015,7 @@
       <c r="C135" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>424</v>
       </c>
       <c r="E135" s="1">
@@ -8055,7 +8059,7 @@
       <c r="C136" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>427</v>
       </c>
       <c r="E136" s="1">
@@ -8099,7 +8103,7 @@
       <c r="C137" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>430</v>
       </c>
       <c r="E137" s="1">
@@ -8143,7 +8147,7 @@
       <c r="C138" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>433</v>
       </c>
       <c r="E138" s="1">
@@ -8187,7 +8191,7 @@
       <c r="C139" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>436</v>
       </c>
       <c r="E139" s="1">
@@ -8231,7 +8235,7 @@
       <c r="C140" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E140" s="1">
@@ -8275,7 +8279,7 @@
       <c r="C141" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>442</v>
       </c>
       <c r="E141" s="1">
@@ -8319,7 +8323,7 @@
       <c r="C142" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E142" s="1">
@@ -8363,7 +8367,7 @@
       <c r="C143" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E143" s="1">
@@ -8407,7 +8411,7 @@
       <c r="C144" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E144" s="1">
@@ -8451,7 +8455,7 @@
       <c r="C145" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>454</v>
       </c>
       <c r="E145" s="1">
@@ -8495,7 +8499,7 @@
       <c r="C146" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E146" s="1">
@@ -8539,7 +8543,7 @@
       <c r="C147" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>460</v>
       </c>
       <c r="E147" s="1">
@@ -8583,7 +8587,7 @@
       <c r="C148" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>463</v>
       </c>
       <c r="E148" s="1">
@@ -8627,7 +8631,7 @@
       <c r="C149" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E149" s="1">
@@ -8671,7 +8675,7 @@
       <c r="C150" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>469</v>
       </c>
       <c r="E150" s="1">
@@ -8715,7 +8719,7 @@
       <c r="C151" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>472</v>
       </c>
       <c r="E151" s="1">
@@ -8759,7 +8763,7 @@
       <c r="C152" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>475</v>
       </c>
       <c r="E152" s="1">
@@ -8803,7 +8807,7 @@
       <c r="C153" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E153" s="1">
@@ -8847,7 +8851,7 @@
       <c r="C154" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>481</v>
       </c>
       <c r="E154" s="1">
@@ -8891,7 +8895,7 @@
       <c r="C155" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>484</v>
       </c>
       <c r="E155" s="1">
@@ -8935,7 +8939,7 @@
       <c r="C156" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>487</v>
       </c>
       <c r="E156" s="1">
@@ -8976,7 +8980,7 @@
       <c r="B157" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>491</v>
       </c>
       <c r="E157" s="1">
@@ -9014,7 +9018,7 @@
       <c r="B158" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>494</v>
       </c>
       <c r="E158" s="1">
@@ -9052,7 +9056,7 @@
       <c r="B159" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>496</v>
       </c>
       <c r="E159" s="1">
@@ -9090,7 +9094,7 @@
       <c r="B160" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>498</v>
       </c>
       <c r="E160" s="1">
@@ -9128,7 +9132,7 @@
       <c r="B161" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>500</v>
       </c>
       <c r="E161" s="1">
@@ -9166,7 +9170,7 @@
       <c r="B162" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>502</v>
       </c>
       <c r="E162" s="1">
@@ -9204,7 +9208,7 @@
       <c r="B163" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>504</v>
       </c>
       <c r="E163" s="1">
@@ -9242,7 +9246,7 @@
       <c r="B164" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>506</v>
       </c>
       <c r="E164" s="1">
@@ -9280,7 +9284,7 @@
       <c r="B165" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>508</v>
       </c>
       <c r="E165" s="1">
@@ -9318,7 +9322,7 @@
       <c r="B166" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E166" s="1">
@@ -9356,7 +9360,7 @@
       <c r="B167" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E167" s="1">
@@ -9394,7 +9398,7 @@
       <c r="B168" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E168" s="1">
@@ -9432,7 +9436,7 @@
       <c r="B169" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E169" s="1">
@@ -9470,7 +9474,7 @@
       <c r="B170" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E170" s="1">
@@ -9508,7 +9512,7 @@
       <c r="B171" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>520</v>
       </c>
       <c r="E171" s="1">
@@ -9546,7 +9550,7 @@
       <c r="B172" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>522</v>
       </c>
       <c r="E172" s="1">
@@ -9584,7 +9588,7 @@
       <c r="B173" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>524</v>
       </c>
       <c r="E173" s="1">
@@ -9622,7 +9626,7 @@
       <c r="B174" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>526</v>
       </c>
       <c r="E174" s="1">
@@ -9660,7 +9664,7 @@
       <c r="B175" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>528</v>
       </c>
       <c r="E175" s="1">
@@ -9698,7 +9702,7 @@
       <c r="B176" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>530</v>
       </c>
       <c r="E176" s="1">
@@ -9736,7 +9740,7 @@
       <c r="B177" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E177" s="1">
@@ -9774,7 +9778,7 @@
       <c r="B178" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>534</v>
       </c>
       <c r="E178" s="1">
@@ -9812,7 +9816,7 @@
       <c r="B179" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>536</v>
       </c>
       <c r="E179" s="1">
@@ -9850,7 +9854,7 @@
       <c r="B180" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>538</v>
       </c>
       <c r="E180" s="1">
@@ -9888,7 +9892,7 @@
       <c r="B181" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E181" s="1">
@@ -9926,7 +9930,7 @@
       <c r="B182" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>542</v>
       </c>
       <c r="E182" s="1">
@@ -9964,7 +9968,7 @@
       <c r="B183" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>544</v>
       </c>
       <c r="E183" s="1">
@@ -10002,7 +10006,7 @@
       <c r="B184" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>546</v>
       </c>
       <c r="E184" s="1">
@@ -10040,7 +10044,7 @@
       <c r="B185" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>548</v>
       </c>
       <c r="E185" s="1">
@@ -10078,7 +10082,7 @@
       <c r="B186" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>550</v>
       </c>
       <c r="E186" s="1">
@@ -10116,7 +10120,7 @@
       <c r="B187" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E187" s="1">
@@ -10154,7 +10158,7 @@
       <c r="B188" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>554</v>
       </c>
       <c r="E188" s="1">
@@ -10192,7 +10196,7 @@
       <c r="B189" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>556</v>
       </c>
       <c r="E189" s="1">
@@ -10230,7 +10234,7 @@
       <c r="B190" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>558</v>
       </c>
       <c r="E190" s="1">
@@ -10268,7 +10272,7 @@
       <c r="B191" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E191" s="1">
@@ -10306,7 +10310,7 @@
       <c r="B192" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>563</v>
       </c>
       <c r="E192" s="1">
@@ -10344,7 +10348,7 @@
       <c r="B193" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>565</v>
       </c>
       <c r="E193" s="1">
@@ -10382,7 +10386,7 @@
       <c r="B194" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E194" s="1">
@@ -10420,7 +10424,7 @@
       <c r="B195" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>569</v>
       </c>
       <c r="E195" s="1">
@@ -10458,7 +10462,7 @@
       <c r="B196" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>571</v>
       </c>
       <c r="E196" s="1">
@@ -10496,7 +10500,7 @@
       <c r="B197" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>573</v>
       </c>
       <c r="E197" s="1">
@@ -10534,7 +10538,7 @@
       <c r="B198" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>575</v>
       </c>
       <c r="E198" s="1">
@@ -10572,7 +10576,7 @@
       <c r="B199" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>577</v>
       </c>
       <c r="E199" s="1">
@@ -10610,7 +10614,7 @@
       <c r="B200" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>579</v>
       </c>
       <c r="E200" s="1">
@@ -10648,7 +10652,7 @@
       <c r="B201" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>581</v>
       </c>
       <c r="E201" s="1">
@@ -10686,7 +10690,7 @@
       <c r="B202" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>583</v>
       </c>
       <c r="E202" s="1">
@@ -10724,7 +10728,7 @@
       <c r="B203" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>585</v>
       </c>
       <c r="E203" s="1">
@@ -10762,7 +10766,7 @@
       <c r="B204" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>587</v>
       </c>
       <c r="E204" s="1">
@@ -10800,7 +10804,7 @@
       <c r="B205" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>589</v>
       </c>
       <c r="E205" s="1">
@@ -10838,7 +10842,7 @@
       <c r="B206" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>591</v>
       </c>
       <c r="E206" s="1">
@@ -10876,7 +10880,7 @@
       <c r="B207" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>593</v>
       </c>
       <c r="E207" s="1">
@@ -10914,7 +10918,7 @@
       <c r="B208" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>595</v>
       </c>
       <c r="E208" s="1">
@@ -10952,7 +10956,7 @@
       <c r="B209" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>597</v>
       </c>
       <c r="E209" s="1">
@@ -10990,7 +10994,7 @@
       <c r="B210" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>599</v>
       </c>
       <c r="E210" s="1">
@@ -11028,7 +11032,7 @@
       <c r="B211" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>601</v>
       </c>
       <c r="E211" s="1">
@@ -11066,7 +11070,7 @@
       <c r="B212" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>603</v>
       </c>
       <c r="E212" s="1">
@@ -11104,7 +11108,7 @@
       <c r="B213" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>605</v>
       </c>
       <c r="E213" s="1">
